--- a/hitung duit.xlsx
+++ b/hitung duit.xlsx
@@ -1,84 +1,244 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="48" windowWidth="16260" windowHeight="5832"/>
+    <workbookView windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
-    <sheet name="kalkulator kategorisasi" sheetId="1" r:id="rId1"/>
+    <sheet name="duit" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
-  <si>
-    <t>Nilai minimal</t>
-  </si>
-  <si>
-    <t>Nilai maksimal</t>
-  </si>
-  <si>
-    <t>Range</t>
-  </si>
-  <si>
-    <t>Diisi</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Sangat Rendah</t>
-  </si>
-  <si>
-    <t>Rendah</t>
-  </si>
-  <si>
-    <t>Sedang</t>
-  </si>
-  <si>
-    <t>Tinggi</t>
-  </si>
-  <si>
-    <t>Sangat Tinggi</t>
-  </si>
-  <si>
-    <t>&lt;</t>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>≤</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>kotakan (buat peserta)</t>
+  </si>
+  <si>
+    <t>print proposal</t>
+  </si>
+  <si>
+    <t>fotocopy proposal x 4</t>
+  </si>
+  <si>
+    <t>print ppt</t>
+  </si>
+  <si>
+    <t>fotocopy ppt x 4</t>
+  </si>
+  <si>
+    <t>air mineral x 4</t>
+  </si>
+  <si>
+    <t>snack x 4</t>
+  </si>
+  <si>
+    <t>map jepit x 4</t>
+  </si>
+  <si>
+    <t>print 1</t>
+  </si>
+  <si>
+    <t>print 2</t>
+  </si>
+  <si>
+    <t>print 3</t>
+  </si>
+  <si>
+    <t>print 4</t>
+  </si>
+  <si>
+    <t>print 5</t>
+  </si>
+  <si>
+    <t>print 6</t>
+  </si>
+  <si>
+    <t>print 7</t>
+  </si>
+  <si>
+    <t>pulpen</t>
+  </si>
+  <si>
+    <t>aqua gelas 1 dus</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,30 +247,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -118,24 +440,308 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent6" xfId="1" builtinId="51"/>
+    <cellStyle name="20% - Accent6" xfId="2" builtinId="50"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="40% - Accent5" xfId="4" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="5" builtinId="46"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Percent" xfId="7" builtinId="5"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Accent4" xfId="9" builtinId="41"/>
+    <cellStyle name="60% - Accent3" xfId="10" builtinId="40"/>
+    <cellStyle name="20% - Accent3" xfId="11" builtinId="38"/>
+    <cellStyle name="Accent3" xfId="12" builtinId="37"/>
+    <cellStyle name="20% - Accent2" xfId="13" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="14" builtinId="33"/>
+    <cellStyle name="Accent6" xfId="15" builtinId="49"/>
+    <cellStyle name="60% - Accent1" xfId="16" builtinId="32"/>
+    <cellStyle name="Heading 4" xfId="17" builtinId="19"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="40% - Accent4" xfId="19" builtinId="43"/>
+    <cellStyle name="40% - Accent3" xfId="20" builtinId="39"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="Bad" xfId="22" builtinId="27"/>
+    <cellStyle name="Linked Cell" xfId="23" builtinId="24"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Note" xfId="27" builtinId="10"/>
+    <cellStyle name="Input" xfId="28" builtinId="20"/>
+    <cellStyle name="Good" xfId="29" builtinId="26"/>
+    <cellStyle name="60% - Accent2" xfId="30" builtinId="36"/>
+    <cellStyle name="Calculation" xfId="31" builtinId="22"/>
+    <cellStyle name="Heading 3" xfId="32" builtinId="18"/>
+    <cellStyle name="Heading 1" xfId="33" builtinId="16"/>
+    <cellStyle name="60% - Accent6" xfId="34" builtinId="52"/>
+    <cellStyle name="20% - Accent1" xfId="35" builtinId="30"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="40% - Accent2" xfId="38" builtinId="35"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Accent1" xfId="40" builtinId="29"/>
+    <cellStyle name="CExplanatory Text" xfId="41" builtinId="53"/>
+    <cellStyle name="Currency" xfId="42" builtinId="4"/>
+    <cellStyle name="Warning Text" xfId="43" builtinId="11"/>
+    <cellStyle name="Currency [0]" xfId="44" builtinId="7"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -426,233 +1032,344 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="3" max="3" width="11"/>
+    <col min="4" max="4" width="12.125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2">
+        <v>15000</v>
+      </c>
+      <c r="D1" s="2">
+        <f t="shared" ref="D1:D8" si="0">B1*C1</f>
+        <v>300000</v>
+      </c>
+      <c r="F1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>52</v>
+      </c>
+      <c r="C2" s="2">
+        <v>150</v>
+      </c>
+      <c r="D2" s="2">
+        <f t="shared" si="0"/>
+        <v>7800</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>208</v>
+      </c>
+      <c r="C3" s="2">
+        <v>150</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" si="0"/>
+        <v>31200</v>
+      </c>
+      <c r="F3">
+        <f>F1*F2</f>
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="B4" s="1">
+        <v>9</v>
+      </c>
+      <c r="C4" s="2">
+        <v>500</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>150</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="0"/>
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="0"/>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10000</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" si="0"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D8" s="2">
+        <f>B8*C8</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2">
+        <v>150</v>
+      </c>
+      <c r="D9" s="2">
+        <f>B9*C9</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>150</v>
+      </c>
+      <c r="D10" s="2">
+        <f>B10*C10</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>16</v>
+      </c>
+      <c r="C11" s="2">
+        <v>150</v>
+      </c>
+      <c r="D11" s="2">
+        <f>B11*C11</f>
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>150</v>
+      </c>
+      <c r="D12" s="2">
+        <f>B12*C12</f>
+        <v>2550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>150</v>
+      </c>
+      <c r="D13" s="2">
+        <f>B13*C13</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>5</v>
+      </c>
+      <c r="C14" s="2">
+        <v>150</v>
+      </c>
+      <c r="D14" s="2">
+        <f>B14*C14</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>129</v>
+      </c>
+      <c r="C15" s="2">
+        <v>150</v>
+      </c>
+      <c r="D15" s="2">
+        <f>B15*C15</f>
+        <v>19350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>4</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5000</v>
+      </c>
+      <c r="D16" s="2">
+        <f>B16*C16</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7">
-        <f>B2-B1</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="7">
-        <f>(B2+B1)/2</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="7">
-        <f>B3/6</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5">
-        <f>F8</f>
-        <v>4.5</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="5">
-        <f>F9</f>
-        <v>3.5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="5">
-        <f>B4+1.5*B5</f>
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5">
-        <f>F10</f>
-        <v>2.5</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="5">
-        <f>B4+0.5*B5</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <f>F11</f>
-        <v>1.5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="5">
-        <f>B4-0.5*B5</f>
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" s="5">
-        <f>B4-1.5*B5</f>
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="3">
-        <f>F14</f>
-        <v>4</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="3">
-        <f>F15</f>
-        <v>2</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="3">
-        <f>B4+B5</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F15" s="3">
-        <f>B4-B5</f>
-        <v>2</v>
-      </c>
+      <c r="C17" s="2">
+        <v>20000</v>
+      </c>
+      <c r="D17" s="2">
+        <f>B17*C17</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2">
+        <f>SUM(D1:D17)</f>
+        <v>497100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22" s="1"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>